--- a/monument_classes/data.xlsx
+++ b/monument_classes/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41e2a39a697455e7/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{78383DAA-CC84-4E42-9C0C-93A27B6A52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CFFDCC-1F2F-4B67-9CD4-D794BF43DACA}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{78383DAA-CC84-4E42-9C0C-93A27B6A52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31EFBF42-6A8F-4B58-95A8-BBCF14CC5FD9}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{1A8DC4B3-0EA5-4944-98C0-C27F0B7E477A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="271">
   <si>
     <t>Code number</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Kingarth, Bute</t>
   </si>
   <si>
-    <t>Machrie Burn, Arran</t>
-  </si>
-  <si>
     <t>Machrie Moor 5, Arrn</t>
   </si>
   <si>
@@ -698,9 +695,6 @@
     <t>Banford Moor S, peak</t>
   </si>
   <si>
-    <t>Bfrabrook 2, peak</t>
-  </si>
-  <si>
     <t>Brown Edge, Titley Moor, peak</t>
   </si>
   <si>
@@ -776,9 +770,6 @@
     <t>Cairnwell</t>
   </si>
   <si>
-    <t>Castlerudxdery</t>
-  </si>
-  <si>
     <t>Coate</t>
   </si>
   <si>
@@ -791,9 +782,6 @@
     <t>Nine Stones</t>
   </si>
   <si>
-    <t>Ring of Bfrodgar</t>
-  </si>
-  <si>
     <t>Stonehenge</t>
   </si>
   <si>
@@ -827,15 +815,9 @@
     <t>Lacra B</t>
   </si>
   <si>
-    <t>Llacra D</t>
-  </si>
-  <si>
     <t>Little Meg</t>
   </si>
   <si>
-    <t>Sdtanton Drew, Gt</t>
-  </si>
-  <si>
     <t>Stangton Drew NE</t>
   </si>
   <si>
@@ -849,13 +831,31 @@
   </si>
   <si>
     <t> Upper Auchnagorth</t>
+  </si>
+  <si>
+    <t>Ring of Brodgar</t>
+  </si>
+  <si>
+    <t>New Grnge</t>
+  </si>
+  <si>
+    <t>Barbrook 2</t>
+  </si>
+  <si>
+    <t>Stanton Drew centreal</t>
+  </si>
+  <si>
+    <t>Castleruddery</t>
+  </si>
+  <si>
+    <t>Lacra D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,6 +876,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -916,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -948,6 +960,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A0ACC5-B143-4452-9F2A-608FDDD8ADFF}">
   <dimension ref="A1:BC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1480,16 +1495,16 @@
         <v>24</v>
       </c>
       <c r="AU2" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW2" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AX2" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AX2" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
@@ -1499,7 +1514,7 @@
     </row>
     <row r="3" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1570,7 +1585,7 @@
     </row>
     <row r="4" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A4" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1639,7 +1654,7 @@
     </row>
     <row r="5" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A5" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1708,7 +1723,7 @@
     </row>
     <row r="6" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1777,7 +1792,7 @@
     </row>
     <row r="7" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -1846,7 +1861,7 @@
     </row>
     <row r="8" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -1915,7 +1930,7 @@
     </row>
     <row r="9" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1986,7 +2001,7 @@
     </row>
     <row r="10" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -2055,7 +2070,7 @@
     </row>
     <row r="11" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A11" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2193,7 +2208,7 @@
     </row>
     <row r="13" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -2261,8 +2276,8 @@
       <c r="BC13" s="2"/>
     </row>
     <row r="14" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A14" s="2" t="s">
-        <v>126</v>
+      <c r="A14" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -2331,7 +2346,7 @@
     </row>
     <row r="15" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2404,7 +2419,7 @@
     </row>
     <row r="16" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -2477,7 +2492,7 @@
     </row>
     <row r="17" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -2546,7 +2561,7 @@
     </row>
     <row r="18" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -2617,7 +2632,7 @@
     </row>
     <row r="19" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2688,7 +2703,7 @@
     </row>
     <row r="20" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -2756,8 +2771,8 @@
       <c r="BC20" s="2"/>
     </row>
     <row r="21" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A21" s="2" t="s">
-        <v>102</v>
+      <c r="A21" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -2826,7 +2841,7 @@
     </row>
     <row r="22" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -2893,7 +2908,7 @@
     </row>
     <row r="23" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A23" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -2966,7 +2981,7 @@
     </row>
     <row r="24" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -3037,7 +3052,7 @@
     </row>
     <row r="25" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3108,7 +3123,7 @@
     </row>
     <row r="26" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -3179,7 +3194,7 @@
     </row>
     <row r="27" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A27" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3319,7 +3334,7 @@
     </row>
     <row r="29" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A29" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3389,8 +3404,8 @@
       <c r="BC29" s="2"/>
     </row>
     <row r="30" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A30" s="2" t="s">
-        <v>220</v>
+      <c r="A30" s="9" t="s">
+        <v>267</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3461,7 +3476,7 @@
     </row>
     <row r="31" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -3530,7 +3545,7 @@
     </row>
     <row r="32" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A32" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -3601,7 +3616,7 @@
     </row>
     <row r="33" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A33" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
@@ -3671,8 +3686,8 @@
       <c r="BC33" s="2"/>
     </row>
     <row r="34" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A34" s="2" t="s">
-        <v>199</v>
+      <c r="A34" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
@@ -3737,7 +3752,7 @@
     </row>
     <row r="35" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A35" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -3810,7 +3825,7 @@
     </row>
     <row r="36" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A36" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
@@ -3881,7 +3896,7 @@
     </row>
     <row r="37" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A37" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -3952,7 +3967,7 @@
     </row>
     <row r="38" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A38" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4026,8 +4041,8 @@
       <c r="BC38" s="2"/>
     </row>
     <row r="39" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A39" s="2" t="s">
-        <v>67</v>
+      <c r="A39" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
@@ -4098,7 +4113,7 @@
     </row>
     <row r="40" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A40" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4167,7 +4182,7 @@
     </row>
     <row r="41" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A41" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4236,7 +4251,7 @@
     </row>
     <row r="42" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4307,7 +4322,7 @@
     </row>
     <row r="43" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A43" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
@@ -4378,7 +4393,7 @@
     </row>
     <row r="44" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A44" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
@@ -4447,7 +4462,7 @@
     </row>
     <row r="45" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A45" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
@@ -4520,7 +4535,7 @@
     </row>
     <row r="46" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4590,8 +4605,8 @@
       <c r="BC46" s="2"/>
     </row>
     <row r="47" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A47" s="2" t="s">
-        <v>69</v>
+      <c r="A47" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4662,7 +4677,7 @@
     </row>
     <row r="48" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -4733,7 +4748,7 @@
     </row>
     <row r="49" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A49" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
@@ -4804,7 +4819,7 @@
     </row>
     <row r="50" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A50" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -4876,8 +4891,8 @@
       <c r="BC50" s="2"/>
     </row>
     <row r="51" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A51" s="2" t="s">
-        <v>128</v>
+      <c r="A51" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
@@ -4946,7 +4961,7 @@
     </row>
     <row r="52" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A52" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5017,7 +5032,7 @@
     </row>
     <row r="53" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -5159,7 +5174,7 @@
     </row>
     <row r="55" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A55" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -5230,7 +5245,7 @@
     </row>
     <row r="56" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -5303,7 +5318,7 @@
     </row>
     <row r="57" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A57" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
@@ -5372,7 +5387,7 @@
     </row>
     <row r="58" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -5441,7 +5456,7 @@
     </row>
     <row r="59" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A59" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5502,7 +5517,7 @@
     </row>
     <row r="60" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A60" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5573,7 +5588,7 @@
     </row>
     <row r="61" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A61" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -5643,8 +5658,8 @@
       <c r="BC61" s="2"/>
     </row>
     <row r="62" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A62" s="2" t="s">
-        <v>108</v>
+      <c r="A62" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -5713,7 +5728,7 @@
     </row>
     <row r="63" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A63" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -5926,7 +5941,7 @@
     </row>
     <row r="66" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A66" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
@@ -5995,7 +6010,7 @@
     </row>
     <row r="67" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A67" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
@@ -6064,7 +6079,7 @@
     </row>
     <row r="68" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A68" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6131,7 +6146,7 @@
     </row>
     <row r="69" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A69" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
@@ -6202,7 +6217,7 @@
     </row>
     <row r="70" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A70" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -6273,7 +6288,7 @@
     </row>
     <row r="71" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
@@ -6342,7 +6357,7 @@
     </row>
     <row r="72" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A72" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6482,7 +6497,7 @@
     </row>
     <row r="74" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
@@ -6554,8 +6569,8 @@
       <c r="BC74" s="2"/>
     </row>
     <row r="75" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A75" s="2" t="s">
-        <v>158</v>
+      <c r="A75" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
@@ -6624,7 +6639,7 @@
     </row>
     <row r="76" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A76" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6695,7 +6710,7 @@
     </row>
     <row r="77" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A77" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
@@ -6764,7 +6779,7 @@
     </row>
     <row r="78" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A78" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6833,7 +6848,7 @@
     </row>
     <row r="79" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A79" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6906,7 +6921,7 @@
     </row>
     <row r="80" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A80" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
@@ -6977,7 +6992,7 @@
     </row>
     <row r="81" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A81" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
@@ -7044,7 +7059,7 @@
     </row>
     <row r="82" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A82" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
@@ -7117,7 +7132,7 @@
     </row>
     <row r="83" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A83" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
@@ -7190,7 +7205,7 @@
     </row>
     <row r="84" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A84" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
@@ -7332,7 +7347,7 @@
     </row>
     <row r="86" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
@@ -7401,7 +7416,7 @@
     </row>
     <row r="87" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A87" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
@@ -7472,7 +7487,7 @@
     </row>
     <row r="88" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A88" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
@@ -7541,7 +7556,7 @@
     </row>
     <row r="89" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7612,7 +7627,7 @@
     </row>
     <row r="90" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7681,7 +7696,7 @@
     </row>
     <row r="91" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A91" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
@@ -7821,7 +7836,7 @@
     </row>
     <row r="93" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A93" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
@@ -7894,7 +7909,7 @@
     </row>
     <row r="94" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A94" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
@@ -7969,7 +7984,7 @@
     </row>
     <row r="95" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A95" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
@@ -8044,7 +8059,7 @@
     </row>
     <row r="96" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A96" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
@@ -8119,7 +8134,7 @@
     </row>
     <row r="97" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A97" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
@@ -8188,7 +8203,7 @@
     </row>
     <row r="98" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A98" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
@@ -8259,7 +8274,7 @@
     </row>
     <row r="99" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A99" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
@@ -8330,7 +8345,7 @@
     </row>
     <row r="100" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
@@ -8399,7 +8414,7 @@
     </row>
     <row r="101" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A101" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
@@ -8470,7 +8485,7 @@
     </row>
     <row r="102" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A102" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
@@ -8608,7 +8623,7 @@
     </row>
     <row r="104" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A104" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
@@ -8679,7 +8694,7 @@
     </row>
     <row r="105" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
@@ -8748,7 +8763,7 @@
     </row>
     <row r="106" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A106" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
@@ -8823,7 +8838,7 @@
     </row>
     <row r="107" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A107" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
@@ -8891,8 +8906,8 @@
       <c r="BC107" s="2"/>
     </row>
     <row r="108" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A108" s="2" t="s">
-        <v>131</v>
+      <c r="A108" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
@@ -8960,8 +8975,8 @@
       <c r="BC108" s="2"/>
     </row>
     <row r="109" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A109" s="2" t="s">
-        <v>206</v>
+      <c r="A109" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
@@ -9029,8 +9044,8 @@
       <c r="BC109" s="2"/>
     </row>
     <row r="110" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A110" s="2" t="s">
-        <v>161</v>
+      <c r="A110" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -9100,8 +9115,8 @@
       <c r="BC110" s="2"/>
     </row>
     <row r="111" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A111" s="2" t="s">
-        <v>82</v>
+      <c r="A111" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
@@ -9174,7 +9189,7 @@
     </row>
     <row r="112" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A112" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
@@ -9243,7 +9258,7 @@
     </row>
     <row r="113" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A113" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9314,7 +9329,7 @@
     </row>
     <row r="114" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A114" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9383,7 +9398,7 @@
     </row>
     <row r="115" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A115" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
@@ -9456,7 +9471,7 @@
     </row>
     <row r="116" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A116" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -9524,8 +9539,8 @@
       <c r="BC116" s="2"/>
     </row>
     <row r="117" spans="1:55" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A117" s="2" t="s">
-        <v>242</v>
+      <c r="A117" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>43</v>
@@ -9544,8 +9559,8 @@
       </c>
     </row>
     <row r="118" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A118" s="2" t="s">
-        <v>75</v>
+      <c r="A118" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9616,7 +9631,7 @@
     </row>
     <row r="119" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A119" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
@@ -9691,7 +9706,7 @@
     </row>
     <row r="120" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
@@ -9764,7 +9779,7 @@
     </row>
     <row r="121" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A121" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
@@ -9835,7 +9850,7 @@
     </row>
     <row r="122" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A122" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
@@ -9906,7 +9921,7 @@
     </row>
     <row r="123" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
@@ -9973,7 +9988,7 @@
     </row>
     <row r="124" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A124" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
@@ -10026,7 +10041,9 @@
       <c r="AP124" s="2"/>
       <c r="AQ124" s="2"/>
       <c r="AR124" s="2"/>
-      <c r="AS124" s="2"/>
+      <c r="AS124" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT124" s="2"/>
       <c r="AU124" s="8" t="s">
         <v>48</v>
@@ -10054,7 +10071,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -10075,12 +10092,12 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
-      <c r="AA125" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA125" s="5"/>
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
-      <c r="AD125" s="2"/>
+      <c r="AD125" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
       <c r="AG125" s="2"/>
@@ -10113,7 +10130,7 @@
     </row>
     <row r="126" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A126" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
@@ -10125,7 +10142,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
@@ -10146,12 +10163,12 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
-      <c r="AA126" s="5"/>
+      <c r="AA126" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
-      <c r="AD126" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
       <c r="AG126" s="2"/>
@@ -10184,7 +10201,7 @@
     </row>
     <row r="127" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A127" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
@@ -10196,7 +10213,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
@@ -10255,7 +10272,7 @@
     </row>
     <row r="128" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A128" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
@@ -10326,7 +10343,7 @@
     </row>
     <row r="129" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A129" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
@@ -10338,7 +10355,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
@@ -10347,10 +10364,12 @@
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
+      <c r="Q129" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="R129" s="2"/>
       <c r="S129" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
@@ -10359,12 +10378,12 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
-      <c r="AA129" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA129" s="5"/>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
-      <c r="AD129" s="2"/>
+      <c r="AD129" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
       <c r="AG129" s="2"/>
@@ -10397,7 +10416,7 @@
     </row>
     <row r="130" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A130" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
@@ -10419,25 +10438,25 @@
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R130" s="2"/>
-      <c r="S130" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="S130" s="5"/>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
-      <c r="Z130" s="2"/>
+      <c r="Z130" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AA130" s="5"/>
-      <c r="AB130" s="2"/>
+      <c r="AB130" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AC130" s="2"/>
-      <c r="AD130" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
       <c r="AG130" s="2"/>
@@ -10452,9 +10471,7 @@
       <c r="AP130" s="2"/>
       <c r="AQ130" s="2"/>
       <c r="AR130" s="2"/>
-      <c r="AS130" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS130" s="2"/>
       <c r="AT130" s="2"/>
       <c r="AU130" s="8" t="s">
         <v>48</v>
@@ -10470,7 +10487,7 @@
     </row>
     <row r="131" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
@@ -10482,7 +10499,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
@@ -10491,24 +10508,22 @@
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
-      <c r="Q131" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
-      <c r="Z131" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA131" s="5"/>
-      <c r="AB131" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
@@ -10525,7 +10540,9 @@
       <c r="AP131" s="2"/>
       <c r="AQ131" s="2"/>
       <c r="AR131" s="2"/>
-      <c r="AS131" s="2"/>
+      <c r="AS131" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT131" s="2"/>
       <c r="AU131" s="8" t="s">
         <v>48</v>
@@ -10541,13 +10558,13 @@
     </row>
     <row r="132" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A132" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -10557,17 +10574,19 @@
       </c>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
+      <c r="L132" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
-      <c r="S132" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T132" s="2"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
@@ -10612,35 +10631,33 @@
     </row>
     <row r="133" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A133" s="2" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C133" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
-      <c r="L133" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
-      <c r="S133" s="5"/>
-      <c r="T133" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="S133" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T133" s="2"/>
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
@@ -10667,9 +10684,7 @@
       <c r="AP133" s="2"/>
       <c r="AQ133" s="2"/>
       <c r="AR133" s="2"/>
-      <c r="AS133" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
       <c r="AU133" s="8" t="s">
         <v>48</v>
@@ -10685,43 +10700,43 @@
     </row>
     <row r="134" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A134" s="2" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
-      <c r="I134" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
+      <c r="L134" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
-      <c r="S134" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="S134" s="5"/>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
-      <c r="Z134" s="2"/>
-      <c r="AA134" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB134" s="2"/>
+      <c r="Z134" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AC134" s="2"/>
       <c r="AD134" s="2"/>
       <c r="AE134" s="2"/>
@@ -10754,22 +10769,24 @@
     </row>
     <row r="135" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A135" s="2" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
+      <c r="I135" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -10778,19 +10795,19 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
       <c r="S135" s="5"/>
-      <c r="T135" s="2"/>
+      <c r="T135" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
-      <c r="Z135" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA135" s="5"/>
-      <c r="AB135" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z135" s="2"/>
+      <c r="AA135" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
       <c r="AE135" s="2"/>
@@ -10802,12 +10819,16 @@
       <c r="AK135" s="2"/>
       <c r="AL135" s="2"/>
       <c r="AM135" s="2"/>
-      <c r="AN135" s="2"/>
+      <c r="AN135" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AO135" s="2"/>
       <c r="AP135" s="2"/>
       <c r="AQ135" s="2"/>
       <c r="AR135" s="2"/>
-      <c r="AS135" s="2"/>
+      <c r="AS135" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="AT135" s="2"/>
       <c r="AU135" s="8" t="s">
         <v>48</v>
@@ -10823,7 +10844,7 @@
     </row>
     <row r="136" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A136" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10849,17 +10870,17 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
       <c r="S136" s="5"/>
-      <c r="T136" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="T136" s="2"/>
       <c r="U136" s="2"/>
-      <c r="V136" s="2"/>
+      <c r="V136" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
       <c r="AA136" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
@@ -10881,7 +10902,7 @@
       <c r="AQ136" s="2"/>
       <c r="AR136" s="2"/>
       <c r="AS136" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AT136" s="2"/>
       <c r="AU136" s="8" t="s">
@@ -10898,25 +10919,23 @@
     </row>
     <row r="137" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A137" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
-      <c r="I137" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="I137" s="2"/>
       <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="K137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -10924,17 +10943,17 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
       <c r="S137" s="5"/>
-      <c r="T137" s="2"/>
+      <c r="T137" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="U137" s="2"/>
-      <c r="V137" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="V137" s="2"/>
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
       <c r="AA137" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
@@ -10947,17 +10966,15 @@
       <c r="AJ137" s="2"/>
       <c r="AK137" s="2"/>
       <c r="AL137" s="2"/>
-      <c r="AM137" s="2"/>
-      <c r="AN137" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AM137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN137" s="2"/>
       <c r="AO137" s="2"/>
       <c r="AP137" s="2"/>
       <c r="AQ137" s="2"/>
       <c r="AR137" s="2"/>
-      <c r="AS137" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS137" s="2"/>
       <c r="AT137" s="2"/>
       <c r="AU137" s="8" t="s">
         <v>48</v>
@@ -10973,22 +10990,24 @@
     </row>
     <row r="138" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A138" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+      <c r="F138" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
+      <c r="I138" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J138" s="2"/>
-      <c r="K138" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -10997,33 +11016,37 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
       <c r="S138" s="5"/>
-      <c r="T138" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
+      <c r="W138" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
-      <c r="AA138" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB138" s="2"/>
+      <c r="AA138" s="5"/>
+      <c r="AB138" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
       <c r="AG138" s="2"/>
-      <c r="AH138" s="2"/>
+      <c r="AH138" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AI138" s="2"/>
       <c r="AJ138" s="2"/>
       <c r="AK138" s="2"/>
       <c r="AL138" s="2"/>
       <c r="AM138" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN138" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="AN138" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AO138" s="2"/>
       <c r="AP138" s="2"/>
       <c r="AQ138" s="2"/>
@@ -11044,23 +11067,21 @@
     </row>
     <row r="139" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J139" s="2"/>
+      <c r="H139" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
@@ -11069,50 +11090,44 @@
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
-      <c r="S139" s="5"/>
+      <c r="S139" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
-      <c r="W139" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="W139" s="2"/>
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
-      <c r="AA139" s="5"/>
-      <c r="AB139" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AA139" s="2"/>
+      <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
       <c r="AD139" s="2"/>
       <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
       <c r="AG139" s="2"/>
-      <c r="AH139" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AH139" s="2"/>
       <c r="AI139" s="2"/>
-      <c r="AJ139" s="2"/>
+      <c r="AJ139" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AK139" s="2"/>
       <c r="AL139" s="2"/>
-      <c r="AM139" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN139" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AM139" s="2"/>
+      <c r="AN139" s="2"/>
       <c r="AO139" s="2"/>
       <c r="AP139" s="2"/>
       <c r="AQ139" s="2"/>
       <c r="AR139" s="2"/>
       <c r="AS139" s="2"/>
       <c r="AT139" s="2"/>
-      <c r="AU139" s="8" t="s">
+      <c r="AU139" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AV139" s="2"/>
-      <c r="AW139" s="9"/>
-      <c r="AX139" s="5"/>
+      <c r="AW139" s="2"/>
+      <c r="AX139" s="2"/>
       <c r="AY139" s="2"/>
       <c r="AZ139" s="2"/>
       <c r="BA139" s="2"/>
@@ -11121,21 +11136,21 @@
     </row>
     <row r="140" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A140" s="2" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-      <c r="H140" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
@@ -11154,7 +11169,9 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-      <c r="AA140" s="2"/>
+      <c r="AA140" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
       <c r="AD140" s="2"/>
@@ -11163,9 +11180,7 @@
       <c r="AG140" s="2"/>
       <c r="AH140" s="2"/>
       <c r="AI140" s="2"/>
-      <c r="AJ140" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AJ140" s="2"/>
       <c r="AK140" s="2"/>
       <c r="AL140" s="2"/>
       <c r="AM140" s="2"/>
@@ -11176,12 +11191,12 @@
       <c r="AR140" s="2"/>
       <c r="AS140" s="2"/>
       <c r="AT140" s="2"/>
-      <c r="AU140" s="2" t="s">
+      <c r="AU140" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AV140" s="2"/>
-      <c r="AW140" s="2"/>
-      <c r="AX140" s="2"/>
+      <c r="AW140" s="9"/>
+      <c r="AX140" s="5"/>
       <c r="AY140" s="2"/>
       <c r="AZ140" s="2"/>
       <c r="BA140" s="2"/>
@@ -11189,27 +11204,29 @@
       <c r="BC140" s="2"/>
     </row>
     <row r="141" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A141" s="2" t="s">
-        <v>116</v>
+      <c r="A141" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-      <c r="I141" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="L141" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
+      <c r="O141" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
@@ -11223,7 +11240,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
-      <c r="AA141" s="5" t="s">
+      <c r="AA141" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AB141" s="2"/>
@@ -11238,18 +11255,22 @@
       <c r="AK141" s="2"/>
       <c r="AL141" s="2"/>
       <c r="AM141" s="2"/>
-      <c r="AN141" s="2"/>
+      <c r="AN141" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AO141" s="2"/>
       <c r="AP141" s="2"/>
       <c r="AQ141" s="2"/>
       <c r="AR141" s="2"/>
-      <c r="AS141" s="2"/>
+      <c r="AS141" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AT141" s="2"/>
-      <c r="AU141" s="8" t="s">
+      <c r="AU141" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AV141" s="2"/>
-      <c r="AW141" s="9"/>
+      <c r="AW141" s="2"/>
       <c r="AX141" s="5"/>
       <c r="AY141" s="2"/>
       <c r="AZ141" s="2"/>
@@ -11259,28 +11280,26 @@
     </row>
     <row r="142" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A142" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C142" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
+      <c r="I142" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
-      <c r="L142" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
-      <c r="O142" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="O142" s="2"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
@@ -11294,7 +11313,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
-      <c r="AA142" s="2" t="s">
+      <c r="AA142" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AB142" s="2"/>
@@ -11309,22 +11328,18 @@
       <c r="AK142" s="2"/>
       <c r="AL142" s="2"/>
       <c r="AM142" s="2"/>
-      <c r="AN142" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AN142" s="2"/>
       <c r="AO142" s="2"/>
       <c r="AP142" s="2"/>
       <c r="AQ142" s="2"/>
       <c r="AR142" s="2"/>
-      <c r="AS142" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AS142" s="2"/>
       <c r="AT142" s="2"/>
-      <c r="AU142" s="2" t="s">
+      <c r="AU142" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AV142" s="2"/>
-      <c r="AW142" s="2"/>
+      <c r="AW142" s="9"/>
       <c r="AX142" s="5"/>
       <c r="AY142" s="2"/>
       <c r="AZ142" s="2"/>
@@ -11334,20 +11349,16 @@
     </row>
     <row r="143" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A143" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
@@ -11357,9 +11368,7 @@
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
-      <c r="S143" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="S143" s="5"/>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
@@ -11367,9 +11376,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
-      <c r="AA143" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA143" s="5"/>
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
       <c r="AD143" s="2"/>
@@ -11387,7 +11394,9 @@
       <c r="AP143" s="2"/>
       <c r="AQ143" s="2"/>
       <c r="AR143" s="2"/>
-      <c r="AS143" s="2"/>
+      <c r="AS143" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT143" s="2"/>
       <c r="AU143" s="8" t="s">
         <v>48</v>
@@ -11403,16 +11412,20 @@
     </row>
     <row r="144" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A144" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
+      <c r="I144" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -11429,8 +11442,12 @@
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
-      <c r="Z144" s="2"/>
-      <c r="AA144" s="5"/>
+      <c r="Z144" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA144" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
       <c r="AD144" s="2"/>
@@ -11442,7 +11459,9 @@
       <c r="AJ144" s="2"/>
       <c r="AK144" s="2"/>
       <c r="AL144" s="2"/>
-      <c r="AM144" s="2"/>
+      <c r="AM144" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AN144" s="2"/>
       <c r="AO144" s="2"/>
       <c r="AP144" s="2"/>
@@ -11466,20 +11485,16 @@
     </row>
     <row r="145" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A145" s="2" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
-      <c r="I145" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -11496,12 +11511,8 @@
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
-      <c r="Z145" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA145" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z145" s="2"/>
+      <c r="AA145" s="2"/>
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
       <c r="AD145" s="2"/>
@@ -11513,23 +11524,19 @@
       <c r="AJ145" s="2"/>
       <c r="AK145" s="2"/>
       <c r="AL145" s="2"/>
-      <c r="AM145" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AM145" s="2"/>
       <c r="AN145" s="2"/>
       <c r="AO145" s="2"/>
       <c r="AP145" s="2"/>
       <c r="AQ145" s="2"/>
       <c r="AR145" s="2"/>
-      <c r="AS145" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS145" s="2"/>
       <c r="AT145" s="2"/>
-      <c r="AU145" s="8" t="s">
+      <c r="AU145" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AV145" s="2"/>
-      <c r="AW145" s="9"/>
+      <c r="AW145" s="2"/>
       <c r="AX145" s="5"/>
       <c r="AY145" s="2"/>
       <c r="AZ145" s="2"/>
@@ -11539,16 +11546,20 @@
     </row>
     <row r="146" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A146" s="2" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
+      <c r="I146" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
@@ -11558,7 +11569,9 @@
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
-      <c r="S146" s="5"/>
+      <c r="S146" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
@@ -11566,14 +11579,16 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
-      <c r="AA146" s="2"/>
+      <c r="AA146" s="5"/>
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
       <c r="AD146" s="2"/>
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
       <c r="AG146" s="2"/>
-      <c r="AH146" s="2"/>
+      <c r="AH146" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AI146" s="2"/>
       <c r="AJ146" s="2"/>
       <c r="AK146" s="2"/>
@@ -11586,11 +11601,11 @@
       <c r="AR146" s="2"/>
       <c r="AS146" s="2"/>
       <c r="AT146" s="2"/>
-      <c r="AU146" s="2" t="s">
+      <c r="AU146" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AV146" s="2"/>
-      <c r="AW146" s="2"/>
+      <c r="AW146" s="9"/>
       <c r="AX146" s="5"/>
       <c r="AY146" s="2"/>
       <c r="AZ146" s="2"/>
@@ -11599,8 +11614,8 @@
       <c r="BC146" s="2"/>
     </row>
     <row r="147" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A147" s="2" t="s">
-        <v>197</v>
+      <c r="A147" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
@@ -11633,16 +11648,16 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
-      <c r="AA147" s="5"/>
+      <c r="AA147" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
       <c r="AD147" s="2"/>
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
       <c r="AG147" s="2"/>
-      <c r="AH147" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AH147" s="2"/>
       <c r="AI147" s="2"/>
       <c r="AJ147" s="2"/>
       <c r="AK147" s="2"/>
@@ -11669,7 +11684,7 @@
     </row>
     <row r="148" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A148" s="2" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
@@ -11680,10 +11695,10 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
-      <c r="I148" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
@@ -11692,22 +11707,22 @@
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
-      <c r="S148" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="S148" s="5"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
-      <c r="AA148" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z148" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA148" s="5"/>
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
-      <c r="AD148" s="2"/>
+      <c r="AD148" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AE148" s="2"/>
       <c r="AF148" s="2"/>
       <c r="AG148" s="2"/>
@@ -11721,8 +11736,12 @@
       <c r="AO148" s="2"/>
       <c r="AP148" s="2"/>
       <c r="AQ148" s="2"/>
-      <c r="AR148" s="2"/>
-      <c r="AS148" s="2"/>
+      <c r="AR148" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS148" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT148" s="2"/>
       <c r="AU148" s="8" t="s">
         <v>48</v>
@@ -11738,45 +11757,45 @@
     </row>
     <row r="149" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A149" s="2" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
-      <c r="J149" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J149" s="2"/>
       <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
+      <c r="L149" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
-      <c r="S149" s="5"/>
+      <c r="S149" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
-      <c r="Z149" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA149" s="5"/>
+      <c r="Z149" s="2"/>
+      <c r="AA149" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
-      <c r="AD149" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AD149" s="2"/>
       <c r="AE149" s="2"/>
       <c r="AF149" s="2"/>
       <c r="AG149" s="2"/>
@@ -11790,12 +11809,8 @@
       <c r="AO149" s="2"/>
       <c r="AP149" s="2"/>
       <c r="AQ149" s="2"/>
-      <c r="AR149" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS149" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AR149" s="2"/>
+      <c r="AS149" s="2"/>
       <c r="AT149" s="2"/>
       <c r="AU149" s="8" t="s">
         <v>48</v>
@@ -11811,7 +11826,7 @@
     </row>
     <row r="150" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A150" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -11858,7 +11873,9 @@
       <c r="AJ150" s="2"/>
       <c r="AK150" s="2"/>
       <c r="AL150" s="2"/>
-      <c r="AM150" s="2"/>
+      <c r="AM150" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AN150" s="2"/>
       <c r="AO150" s="2"/>
       <c r="AP150" s="2"/>
@@ -11880,36 +11897,36 @@
     </row>
     <row r="151" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A151" s="2" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C151" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
+      <c r="I151" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
-      <c r="L151" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
-      <c r="S151" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="S151" s="5"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
-      <c r="W151" s="2"/>
+      <c r="W151" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
@@ -11927,9 +11944,7 @@
       <c r="AJ151" s="2"/>
       <c r="AK151" s="2"/>
       <c r="AL151" s="2"/>
-      <c r="AM151" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AM151" s="2"/>
       <c r="AN151" s="2"/>
       <c r="AO151" s="2"/>
       <c r="AP151" s="2"/>
@@ -11937,10 +11952,10 @@
       <c r="AR151" s="2"/>
       <c r="AS151" s="2"/>
       <c r="AT151" s="2"/>
-      <c r="AU151" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV151" s="2"/>
+      <c r="AU151" s="8"/>
+      <c r="AV151" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AW151" s="9"/>
       <c r="AX151" s="5"/>
       <c r="AY151" s="2"/>
@@ -11951,7 +11966,7 @@
     </row>
     <row r="152" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A152" s="2" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
@@ -11961,11 +11976,13 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J152" s="2"/>
+      <c r="H152" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -11978,15 +11995,11 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
-      <c r="W152" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="W152" s="2"/>
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
-      <c r="AA152" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA152" s="5"/>
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
       <c r="AD152" s="2"/>
@@ -11994,7 +12007,9 @@
       <c r="AF152" s="2"/>
       <c r="AG152" s="2"/>
       <c r="AH152" s="2"/>
-      <c r="AI152" s="2"/>
+      <c r="AI152" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AJ152" s="2"/>
       <c r="AK152" s="2"/>
       <c r="AL152" s="2"/>
@@ -12006,10 +12021,10 @@
       <c r="AR152" s="2"/>
       <c r="AS152" s="2"/>
       <c r="AT152" s="2"/>
-      <c r="AU152" s="8"/>
-      <c r="AV152" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AU152" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV152" s="2"/>
       <c r="AW152" s="9"/>
       <c r="AX152" s="5"/>
       <c r="AY152" s="2"/>
@@ -12020,7 +12035,7 @@
     </row>
     <row r="153" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A153" s="2" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
@@ -12030,30 +12045,32 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H153" s="2"/>
       <c r="I153" s="2"/>
-      <c r="J153" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
+      <c r="O153" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
       <c r="S153" s="5"/>
-      <c r="T153" s="2"/>
+      <c r="T153" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
-      <c r="AA153" s="5"/>
+      <c r="AA153" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
       <c r="AD153" s="2"/>
@@ -12061,19 +12078,21 @@
       <c r="AF153" s="2"/>
       <c r="AG153" s="2"/>
       <c r="AH153" s="2"/>
-      <c r="AI153" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AI153" s="2"/>
       <c r="AJ153" s="2"/>
       <c r="AK153" s="2"/>
       <c r="AL153" s="2"/>
-      <c r="AM153" s="2"/>
+      <c r="AM153" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AN153" s="2"/>
       <c r="AO153" s="2"/>
       <c r="AP153" s="2"/>
       <c r="AQ153" s="2"/>
       <c r="AR153" s="2"/>
-      <c r="AS153" s="2"/>
+      <c r="AS153" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AT153" s="2"/>
       <c r="AU153" s="8" t="s">
         <v>48</v>
@@ -12089,7 +12108,7 @@
     </row>
     <row r="154" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A154" s="2" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
@@ -12100,22 +12119,22 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
+      <c r="I154" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
-      <c r="O154" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="S154" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T154" s="2"/>
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
@@ -12136,17 +12155,13 @@
       <c r="AJ154" s="2"/>
       <c r="AK154" s="2"/>
       <c r="AL154" s="2"/>
-      <c r="AM154" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AM154" s="2"/>
       <c r="AN154" s="2"/>
       <c r="AO154" s="2"/>
       <c r="AP154" s="2"/>
       <c r="AQ154" s="2"/>
       <c r="AR154" s="2"/>
-      <c r="AS154" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AS154" s="2"/>
       <c r="AT154" s="2"/>
       <c r="AU154" s="8" t="s">
         <v>48</v>
@@ -12162,7 +12177,7 @@
     </row>
     <row r="155" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
@@ -12173,10 +12188,10 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
-      <c r="I155" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
@@ -12186,7 +12201,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
       <c r="S155" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
@@ -12242,10 +12257,10 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I156" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
@@ -12254,16 +12269,16 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
-      <c r="S156" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="S156" s="5"/>
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
-      <c r="Z156" s="2"/>
+      <c r="Z156" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AA156" s="5" t="s">
         <v>48</v>
       </c>
@@ -12282,7 +12297,9 @@
       <c r="AN156" s="2"/>
       <c r="AO156" s="2"/>
       <c r="AP156" s="2"/>
-      <c r="AQ156" s="2"/>
+      <c r="AQ156" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AR156" s="2"/>
       <c r="AS156" s="2"/>
       <c r="AT156" s="2"/>
@@ -12300,7 +12317,7 @@
     </row>
     <row r="157" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A157" s="2" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
@@ -12311,11 +12328,11 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I157" s="2"/>
       <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
+      <c r="K157" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -12324,15 +12341,15 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
       <c r="S157" s="5"/>
-      <c r="T157" s="2"/>
+      <c r="T157" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
-      <c r="Z157" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z157" s="2"/>
       <c r="AA157" s="5" t="s">
         <v>48</v>
       </c>
@@ -12347,20 +12364,24 @@
       <c r="AJ157" s="2"/>
       <c r="AK157" s="2"/>
       <c r="AL157" s="2"/>
-      <c r="AM157" s="2"/>
+      <c r="AM157" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AN157" s="2"/>
       <c r="AO157" s="2"/>
       <c r="AP157" s="2"/>
-      <c r="AQ157" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR157" s="2"/>
-      <c r="AS157" s="2"/>
+      <c r="AQ157" s="2"/>
+      <c r="AR157" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS157" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT157" s="2"/>
-      <c r="AU157" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV157" s="2"/>
+      <c r="AU157" s="8"/>
+      <c r="AV157" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AW157" s="9"/>
       <c r="AX157" s="5"/>
       <c r="AY157" s="2"/>
@@ -12370,8 +12391,8 @@
       <c r="BC157" s="2"/>
     </row>
     <row r="158" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A158" s="2" t="s">
-        <v>140</v>
+      <c r="A158" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
@@ -12382,11 +12403,11 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
+      <c r="I158" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J158" s="2"/>
-      <c r="K158" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -12394,10 +12415,10 @@
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="S158" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T158" s="2"/>
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
@@ -12418,24 +12439,22 @@
       <c r="AJ158" s="2"/>
       <c r="AK158" s="2"/>
       <c r="AL158" s="2"/>
-      <c r="AM158" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AM158" s="2"/>
       <c r="AN158" s="2"/>
       <c r="AO158" s="2"/>
       <c r="AP158" s="2"/>
       <c r="AQ158" s="2"/>
       <c r="AR158" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AS158" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AT158" s="2"/>
-      <c r="AU158" s="8"/>
-      <c r="AV158" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AU158" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV158" s="2"/>
       <c r="AW158" s="9"/>
       <c r="AX158" s="5"/>
       <c r="AY158" s="2"/>
@@ -12446,7 +12465,7 @@
     </row>
     <row r="159" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A159" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
@@ -12466,12 +12485,12 @@
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
+      <c r="P159" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
-      <c r="S159" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="S159" s="5"/>
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
@@ -12479,9 +12498,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
-      <c r="AA159" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA159" s="5"/>
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
       <c r="AD159" s="2"/>
@@ -12498,12 +12515,8 @@
       <c r="AO159" s="2"/>
       <c r="AP159" s="2"/>
       <c r="AQ159" s="2"/>
-      <c r="AR159" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS159" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AR159" s="2"/>
+      <c r="AS159" s="2"/>
       <c r="AT159" s="2"/>
       <c r="AU159" s="8" t="s">
         <v>48</v>
@@ -12519,7 +12532,7 @@
     </row>
     <row r="160" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2" t="s">
@@ -12539,12 +12552,12 @@
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
-      <c r="P160" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
-      <c r="S160" s="5"/>
+      <c r="S160" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
@@ -12552,7 +12565,9 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
-      <c r="AA160" s="5"/>
+      <c r="AA160" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
       <c r="AD160" s="2"/>
@@ -12585,8 +12600,8 @@
       <c r="BC160" s="2"/>
     </row>
     <row r="161" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A161" s="2" t="s">
-        <v>231</v>
+      <c r="A161" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
@@ -12619,12 +12634,12 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
-      <c r="AA161" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA161" s="5"/>
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
-      <c r="AD161" s="2"/>
+      <c r="AD161" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AE161" s="2"/>
       <c r="AF161" s="2"/>
       <c r="AG161" s="2"/>
@@ -12655,7 +12670,7 @@
     </row>
     <row r="162" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A162" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
@@ -12688,12 +12703,14 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
-      <c r="AA162" s="5"/>
+      <c r="AA162" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB162" s="2"/>
-      <c r="AC162" s="2"/>
-      <c r="AD162" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AC162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD162" s="2"/>
       <c r="AE162" s="2"/>
       <c r="AF162" s="2"/>
       <c r="AG162" s="2"/>
@@ -12702,7 +12719,9 @@
       <c r="AJ162" s="2"/>
       <c r="AK162" s="2"/>
       <c r="AL162" s="2"/>
-      <c r="AM162" s="2"/>
+      <c r="AM162" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AN162" s="2"/>
       <c r="AO162" s="2"/>
       <c r="AP162" s="2"/>
@@ -12724,7 +12743,7 @@
     </row>
     <row r="163" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A163" s="2" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
@@ -12736,7 +12755,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
@@ -12748,7 +12767,7 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
       <c r="S163" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
@@ -12756,14 +12775,14 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
-      <c r="Z163" s="2"/>
-      <c r="AA163" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB163" s="2"/>
-      <c r="AC163" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA163" s="5"/>
+      <c r="AB163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC163" s="2"/>
       <c r="AD163" s="2"/>
       <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
@@ -12773,15 +12792,15 @@
       <c r="AJ163" s="2"/>
       <c r="AK163" s="2"/>
       <c r="AL163" s="2"/>
-      <c r="AM163" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AM163" s="2"/>
       <c r="AN163" s="2"/>
       <c r="AO163" s="2"/>
       <c r="AP163" s="2"/>
       <c r="AQ163" s="2"/>
       <c r="AR163" s="2"/>
-      <c r="AS163" s="2"/>
+      <c r="AS163" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT163" s="2"/>
       <c r="AU163" s="8" t="s">
         <v>48</v>
@@ -12797,11 +12816,11 @@
     </row>
     <row r="164" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A164" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -12821,7 +12840,7 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
       <c r="S164" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
@@ -12829,13 +12848,11 @@
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
-      <c r="Z164" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA164" s="5"/>
-      <c r="AB164" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
       <c r="AD164" s="2"/>
       <c r="AE164" s="2"/>
@@ -12852,9 +12869,7 @@
       <c r="AP164" s="2"/>
       <c r="AQ164" s="2"/>
       <c r="AR164" s="2"/>
-      <c r="AS164" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS164" s="2"/>
       <c r="AT164" s="2"/>
       <c r="AU164" s="8" t="s">
         <v>48</v>
@@ -12870,11 +12885,11 @@
     </row>
     <row r="165" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A165" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -12894,7 +12909,7 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
       <c r="S165" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
@@ -12904,7 +12919,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
       <c r="AA165" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
@@ -12939,23 +12954,23 @@
     </row>
     <row r="166" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A166" s="2" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
-      <c r="I166" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
+      <c r="L166" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -12963,7 +12978,7 @@
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
       <c r="S166" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
@@ -13008,23 +13023,23 @@
     </row>
     <row r="167" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A167" s="2" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C167" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
+      <c r="I167" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
-      <c r="L167" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -13077,11 +13092,11 @@
     </row>
     <row r="168" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A168" s="2" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -13089,7 +13104,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
@@ -13101,7 +13116,7 @@
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
       <c r="S168" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
@@ -13110,9 +13125,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
-      <c r="AA168" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA168" s="5"/>
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
       <c r="AD168" s="2"/>
@@ -13124,13 +13137,17 @@
       <c r="AJ168" s="2"/>
       <c r="AK168" s="2"/>
       <c r="AL168" s="2"/>
-      <c r="AM168" s="2"/>
+      <c r="AM168" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="AN168" s="2"/>
       <c r="AO168" s="2"/>
       <c r="AP168" s="2"/>
       <c r="AQ168" s="2"/>
       <c r="AR168" s="2"/>
-      <c r="AS168" s="2"/>
+      <c r="AS168" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AT168" s="2"/>
       <c r="AU168" s="8" t="s">
         <v>48</v>
@@ -13146,20 +13163,18 @@
     </row>
     <row r="169" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A169" s="2" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
-      <c r="I169" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
@@ -13167,10 +13182,12 @@
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
+      <c r="Q169" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="R169" s="2"/>
       <c r="S169" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
@@ -13180,7 +13197,9 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
       <c r="AA169" s="5"/>
-      <c r="AB169" s="2"/>
+      <c r="AB169" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AC169" s="2"/>
       <c r="AD169" s="2"/>
       <c r="AE169" s="2"/>
@@ -13191,16 +13210,14 @@
       <c r="AJ169" s="2"/>
       <c r="AK169" s="2"/>
       <c r="AL169" s="2"/>
-      <c r="AM169" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="AM169" s="2"/>
       <c r="AN169" s="2"/>
       <c r="AO169" s="2"/>
       <c r="AP169" s="2"/>
       <c r="AQ169" s="2"/>
       <c r="AR169" s="2"/>
       <c r="AS169" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AT169" s="2"/>
       <c r="AU169" s="8" t="s">
@@ -13217,7 +13234,7 @@
     </row>
     <row r="170" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A170" s="2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
@@ -13229,19 +13246,19 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
+      <c r="J170" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
-      <c r="Q170" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
       <c r="S170" s="5" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
@@ -13250,10 +13267,10 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
-      <c r="AA170" s="5"/>
-      <c r="AB170" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA170" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
       <c r="AD170" s="2"/>
       <c r="AE170" s="2"/>
@@ -13270,14 +13287,12 @@
       <c r="AP170" s="2"/>
       <c r="AQ170" s="2"/>
       <c r="AR170" s="2"/>
-      <c r="AS170" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
-      <c r="AU170" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV170" s="2"/>
+      <c r="AU170" s="8"/>
+      <c r="AV170" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AW170" s="9"/>
       <c r="AX170" s="5"/>
       <c r="AY170" s="2"/>
@@ -13288,21 +13303,21 @@
     </row>
     <row r="171" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A171" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C171" s="2"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
+      <c r="E171" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I171" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
@@ -13311,26 +13326,26 @@
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
-      <c r="S171" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="T171" s="2"/>
+      <c r="S171" s="5"/>
+      <c r="T171" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="U171" s="2"/>
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
-      <c r="AA171" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA171" s="5"/>
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
       <c r="AD171" s="2"/>
       <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
       <c r="AG171" s="2"/>
-      <c r="AH171" s="2"/>
+      <c r="AH171" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AI171" s="2"/>
       <c r="AJ171" s="2"/>
       <c r="AK171" s="2"/>
@@ -13344,10 +13359,10 @@
       <c r="AS171" s="2"/>
       <c r="AT171" s="2"/>
       <c r="AU171" s="8"/>
-      <c r="AV171" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW171" s="9"/>
+      <c r="AV171" s="2"/>
+      <c r="AW171" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="AX171" s="5"/>
       <c r="AY171" s="2"/>
       <c r="AZ171" s="2"/>
@@ -13357,22 +13372,22 @@
     </row>
     <row r="172" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A172" s="2" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="C172" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D172" s="2"/>
-      <c r="E172" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
-      <c r="I172" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I172" s="2"/>
       <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
+      <c r="K172" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -13381,42 +13396,46 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
       <c r="S172" s="5"/>
-      <c r="T172" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="T172" s="2"/>
       <c r="U172" s="2"/>
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
+      <c r="Z172" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AA172" s="5"/>
-      <c r="AB172" s="2"/>
+      <c r="AB172" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AC172" s="2"/>
       <c r="AD172" s="2"/>
       <c r="AE172" s="2"/>
       <c r="AF172" s="2"/>
       <c r="AG172" s="2"/>
-      <c r="AH172" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AH172" s="2"/>
       <c r="AI172" s="2"/>
       <c r="AJ172" s="2"/>
       <c r="AK172" s="2"/>
       <c r="AL172" s="2"/>
-      <c r="AM172" s="2"/>
+      <c r="AM172" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AN172" s="2"/>
       <c r="AO172" s="2"/>
       <c r="AP172" s="2"/>
       <c r="AQ172" s="2"/>
       <c r="AR172" s="2"/>
-      <c r="AS172" s="2"/>
+      <c r="AS172" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT172" s="2"/>
-      <c r="AU172" s="8"/>
+      <c r="AU172" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="AV172" s="2"/>
-      <c r="AW172" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW172" s="9"/>
       <c r="AX172" s="5"/>
       <c r="AY172" s="2"/>
       <c r="AZ172" s="2"/>
@@ -13426,7 +13445,7 @@
     </row>
     <row r="173" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A173" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
@@ -13438,10 +13457,10 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J173" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -13449,20 +13468,20 @@
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="2"/>
+      <c r="S173" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T173" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
-      <c r="Z173" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z173" s="2"/>
       <c r="AA173" s="5"/>
-      <c r="AB173" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
       <c r="AD173" s="2"/>
       <c r="AE173" s="2"/>
@@ -13473,16 +13492,14 @@
       <c r="AJ173" s="2"/>
       <c r="AK173" s="2"/>
       <c r="AL173" s="2"/>
-      <c r="AM173" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AM173" s="2"/>
       <c r="AN173" s="2"/>
       <c r="AO173" s="2"/>
       <c r="AP173" s="2"/>
       <c r="AQ173" s="2"/>
       <c r="AR173" s="2"/>
       <c r="AS173" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AT173" s="2"/>
       <c r="AU173" s="8" t="s">
@@ -13499,7 +13516,7 @@
     </row>
     <row r="174" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A174" s="2" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
@@ -13510,10 +13527,10 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I174" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -13525,16 +13542,16 @@
       <c r="S174" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T174" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="T174" s="2"/>
       <c r="U174" s="2"/>
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
-      <c r="AA174" s="5"/>
+      <c r="AA174" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
       <c r="AD174" s="2"/>
@@ -13552,9 +13569,7 @@
       <c r="AP174" s="2"/>
       <c r="AQ174" s="2"/>
       <c r="AR174" s="2"/>
-      <c r="AS174" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AS174" s="2"/>
       <c r="AT174" s="2"/>
       <c r="AU174" s="8" t="s">
         <v>48</v>
@@ -13570,7 +13585,7 @@
     </row>
     <row r="175" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A175" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
@@ -13590,11 +13605,13 @@
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
+      <c r="P175" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
       <c r="S175" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
@@ -13604,7 +13621,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
       <c r="AA175" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
@@ -13614,7 +13631,9 @@
       <c r="AG175" s="2"/>
       <c r="AH175" s="2"/>
       <c r="AI175" s="2"/>
-      <c r="AJ175" s="2"/>
+      <c r="AJ175" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AK175" s="2"/>
       <c r="AL175" s="2"/>
       <c r="AM175" s="2"/>
@@ -13639,7 +13658,7 @@
     </row>
     <row r="176" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A176" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
@@ -13650,33 +13669,29 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
-      <c r="I176" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
-      <c r="P176" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
-      <c r="S176" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="S176" s="5"/>
       <c r="T176" s="2"/>
-      <c r="U176" s="2"/>
+      <c r="U176" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
-      <c r="AA176" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="AA176" s="5"/>
       <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
       <c r="AD176" s="2"/>
@@ -13685,9 +13700,7 @@
       <c r="AG176" s="2"/>
       <c r="AH176" s="2"/>
       <c r="AI176" s="2"/>
-      <c r="AJ176" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AJ176" s="2"/>
       <c r="AK176" s="2"/>
       <c r="AL176" s="2"/>
       <c r="AM176" s="2"/>
@@ -13711,24 +13724,24 @@
       <c r="BC176" s="2"/>
     </row>
     <row r="177" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A177" s="2" t="s">
-        <v>170</v>
+      <c r="A177" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
-      <c r="J177" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="J177" s="2"/>
       <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
+      <c r="L177" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -13737,15 +13750,17 @@
       <c r="R177" s="2"/>
       <c r="S177" s="5"/>
       <c r="T177" s="2"/>
-      <c r="U177" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V177" s="2"/>
+      <c r="U177" s="2"/>
+      <c r="V177" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
-      <c r="AA177" s="5"/>
+      <c r="AA177" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
       <c r="AD177" s="2"/>
@@ -13779,23 +13794,23 @@
     </row>
     <row r="178" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
+      <c r="I178" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
-      <c r="L178" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -13803,18 +13818,16 @@
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
       <c r="S178" s="5"/>
-      <c r="T178" s="2"/>
+      <c r="T178" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="U178" s="2"/>
-      <c r="V178" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="V178" s="2"/>
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
-      <c r="AA178" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA178" s="5"/>
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
       <c r="AD178" s="2"/>
@@ -13823,7 +13836,9 @@
       <c r="AG178" s="2"/>
       <c r="AH178" s="2"/>
       <c r="AI178" s="2"/>
-      <c r="AJ178" s="2"/>
+      <c r="AJ178" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AK178" s="2"/>
       <c r="AL178" s="2"/>
       <c r="AM178" s="2"/>
@@ -13834,12 +13849,12 @@
       <c r="AR178" s="2"/>
       <c r="AS178" s="2"/>
       <c r="AT178" s="2"/>
-      <c r="AU178" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="AU178" s="8"/>
       <c r="AV178" s="2"/>
       <c r="AW178" s="9"/>
-      <c r="AX178" s="5"/>
+      <c r="AX178" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AY178" s="2"/>
       <c r="AZ178" s="2"/>
       <c r="BA178" s="2"/>
@@ -13848,14 +13863,14 @@
     </row>
     <row r="179" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D179" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
@@ -13864,7 +13879,9 @@
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
+      <c r="L179" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -13872,16 +13889,18 @@
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
       <c r="S179" s="5"/>
-      <c r="T179" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="T179" s="2"/>
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
-      <c r="Z179" s="2"/>
-      <c r="AA179" s="5"/>
+      <c r="Z179" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA179" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB179" s="2"/>
       <c r="AC179" s="2"/>
       <c r="AD179" s="2"/>
@@ -13890,25 +13909,25 @@
       <c r="AG179" s="2"/>
       <c r="AH179" s="2"/>
       <c r="AI179" s="2"/>
-      <c r="AJ179" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AJ179" s="2"/>
       <c r="AK179" s="2"/>
       <c r="AL179" s="2"/>
       <c r="AM179" s="2"/>
       <c r="AN179" s="2"/>
       <c r="AO179" s="2"/>
-      <c r="AP179" s="2"/>
+      <c r="AP179" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AQ179" s="2"/>
       <c r="AR179" s="2"/>
       <c r="AS179" s="2"/>
       <c r="AT179" s="2"/>
-      <c r="AU179" s="8"/>
+      <c r="AU179" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="AV179" s="2"/>
       <c r="AW179" s="9"/>
-      <c r="AX179" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AX179" s="5"/>
       <c r="AY179" s="2"/>
       <c r="AZ179" s="2"/>
       <c r="BA179" s="2"/>
@@ -13917,13 +13936,13 @@
     </row>
     <row r="180" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A180" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C180" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -13933,9 +13952,7 @@
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
-      <c r="L180" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -13943,15 +13960,15 @@
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
       <c r="S180" s="5"/>
-      <c r="T180" s="2"/>
+      <c r="T180" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
-      <c r="Z180" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z180" s="2"/>
       <c r="AA180" s="5" t="s">
         <v>48</v>
       </c>
@@ -13969,9 +13986,7 @@
       <c r="AM180" s="2"/>
       <c r="AN180" s="2"/>
       <c r="AO180" s="2"/>
-      <c r="AP180" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AP180" s="2"/>
       <c r="AQ180" s="2"/>
       <c r="AR180" s="2"/>
       <c r="AS180" s="2"/>
@@ -13990,7 +14005,7 @@
     </row>
     <row r="181" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A181" s="2" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
@@ -14015,11 +14030,13 @@
       <c r="R181" s="2"/>
       <c r="S181" s="5"/>
       <c r="T181" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
-      <c r="W181" s="2"/>
+      <c r="W181" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
@@ -14059,7 +14076,7 @@
     </row>
     <row r="182" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A182" s="2" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
@@ -14082,22 +14099,20 @@
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="S182" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T182" s="2"/>
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
-      <c r="W182" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="W182" s="2"/>
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
-      <c r="AA182" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB182" s="2"/>
+      <c r="AA182" s="5"/>
+      <c r="AB182" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AC182" s="2"/>
       <c r="AD182" s="2"/>
       <c r="AE182" s="2"/>
@@ -14106,7 +14121,9 @@
       <c r="AH182" s="2"/>
       <c r="AI182" s="2"/>
       <c r="AJ182" s="2"/>
-      <c r="AK182" s="2"/>
+      <c r="AK182" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AL182" s="2"/>
       <c r="AM182" s="2"/>
       <c r="AN182" s="2"/>
@@ -14114,7 +14131,9 @@
       <c r="AP182" s="2"/>
       <c r="AQ182" s="2"/>
       <c r="AR182" s="2"/>
-      <c r="AS182" s="2"/>
+      <c r="AS182" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT182" s="2"/>
       <c r="AU182" s="8" t="s">
         <v>48</v>
@@ -14130,7 +14149,7 @@
     </row>
     <row r="183" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
@@ -14141,10 +14160,10 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
-      <c r="I183" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
@@ -14153,20 +14172,20 @@
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
-      <c r="S183" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="S183" s="5"/>
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
-      <c r="V183" s="2"/>
+      <c r="V183" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
-      <c r="AA183" s="5"/>
-      <c r="AB183" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA183" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB183" s="2"/>
       <c r="AC183" s="2"/>
       <c r="AD183" s="2"/>
       <c r="AE183" s="2"/>
@@ -14175,9 +14194,7 @@
       <c r="AH183" s="2"/>
       <c r="AI183" s="2"/>
       <c r="AJ183" s="2"/>
-      <c r="AK183" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AK183" s="2"/>
       <c r="AL183" s="2"/>
       <c r="AM183" s="2"/>
       <c r="AN183" s="2"/>
@@ -14203,7 +14220,7 @@
     </row>
     <row r="184" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A184" s="2" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
@@ -14214,10 +14231,10 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="I184" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
@@ -14226,12 +14243,12 @@
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
-      <c r="S184" s="5"/>
+      <c r="S184" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
-      <c r="V184" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="V184" s="2"/>
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
@@ -14345,7 +14362,7 @@
     </row>
     <row r="186" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A186" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
@@ -14398,14 +14415,12 @@
       <c r="AP186" s="2"/>
       <c r="AQ186" s="2"/>
       <c r="AR186" s="2"/>
-      <c r="AS186" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS186" s="2"/>
       <c r="AT186" s="2"/>
-      <c r="AU186" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV186" s="2"/>
+      <c r="AU186" s="8"/>
+      <c r="AV186" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AW186" s="9"/>
       <c r="AX186" s="5"/>
       <c r="AY186" s="2"/>
@@ -14415,43 +14430,41 @@
       <c r="BC186" s="2"/>
     </row>
     <row r="187" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A187" s="2" t="s">
-        <v>207</v>
+      <c r="A187" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
-      <c r="I187" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
+      <c r="N187" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
-      <c r="S187" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T187" s="2"/>
+      <c r="S187" s="5"/>
+      <c r="T187" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="U187" s="2"/>
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
-      <c r="AA187" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA187" s="5"/>
       <c r="AB187" s="2"/>
       <c r="AC187" s="2"/>
       <c r="AD187" s="2"/>
@@ -14463,7 +14476,9 @@
       <c r="AJ187" s="2"/>
       <c r="AK187" s="2"/>
       <c r="AL187" s="2"/>
-      <c r="AM187" s="2"/>
+      <c r="AM187" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AN187" s="2"/>
       <c r="AO187" s="2"/>
       <c r="AP187" s="2"/>
@@ -14471,10 +14486,10 @@
       <c r="AR187" s="2"/>
       <c r="AS187" s="2"/>
       <c r="AT187" s="2"/>
-      <c r="AU187" s="8"/>
-      <c r="AV187" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AU187" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV187" s="2"/>
       <c r="AW187" s="9"/>
       <c r="AX187" s="5"/>
       <c r="AY187" s="2"/>
@@ -14485,40 +14500,42 @@
     </row>
     <row r="188" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A188" s="2" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C188" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
+      <c r="I188" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
-      <c r="N188" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
-      <c r="S188" s="5"/>
-      <c r="T188" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="S188" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T188" s="2"/>
       <c r="U188" s="2"/>
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
-      <c r="AA188" s="5"/>
+      <c r="AA188" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB188" s="2"/>
       <c r="AC188" s="2"/>
       <c r="AD188" s="2"/>
@@ -14530,9 +14547,7 @@
       <c r="AJ188" s="2"/>
       <c r="AK188" s="2"/>
       <c r="AL188" s="2"/>
-      <c r="AM188" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AM188" s="2"/>
       <c r="AN188" s="2"/>
       <c r="AO188" s="2"/>
       <c r="AP188" s="2"/>
@@ -14540,12 +14555,12 @@
       <c r="AR188" s="2"/>
       <c r="AS188" s="2"/>
       <c r="AT188" s="2"/>
-      <c r="AU188" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="AU188" s="8"/>
       <c r="AV188" s="2"/>
       <c r="AW188" s="9"/>
-      <c r="AX188" s="5"/>
+      <c r="AX188" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AY188" s="2"/>
       <c r="AZ188" s="2"/>
       <c r="BA188" s="2"/>
@@ -14554,23 +14569,27 @@
     </row>
     <row r="189" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A189" s="2" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
+      <c r="F189" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
+      <c r="L189" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -14578,7 +14597,7 @@
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
       <c r="S189" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
@@ -14587,11 +14606,11 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
-      <c r="AA189" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA189" s="2"/>
       <c r="AB189" s="2"/>
-      <c r="AC189" s="2"/>
+      <c r="AC189" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AD189" s="2"/>
       <c r="AE189" s="2"/>
       <c r="AF189" s="2"/>
@@ -14609,12 +14628,12 @@
       <c r="AR189" s="2"/>
       <c r="AS189" s="2"/>
       <c r="AT189" s="2"/>
-      <c r="AU189" s="8"/>
+      <c r="AU189" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AV189" s="2"/>
-      <c r="AW189" s="9"/>
-      <c r="AX189" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW189" s="2"/>
+      <c r="AX189" s="2"/>
       <c r="AY189" s="2"/>
       <c r="AZ189" s="2"/>
       <c r="BA189" s="2"/>
@@ -14623,27 +14642,23 @@
     </row>
     <row r="190" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A190" s="2" t="s">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="C190" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D190" s="2"/>
       <c r="E190" s="2"/>
-      <c r="F190" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
-      <c r="L190" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -14651,7 +14666,7 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
       <c r="S190" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
@@ -14660,11 +14675,11 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
-      <c r="AA190" s="2"/>
+      <c r="AA190" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB190" s="2"/>
-      <c r="AC190" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AC190" s="2"/>
       <c r="AD190" s="2"/>
       <c r="AE190" s="2"/>
       <c r="AF190" s="2"/>
@@ -14680,14 +14695,16 @@
       <c r="AP190" s="2"/>
       <c r="AQ190" s="2"/>
       <c r="AR190" s="2"/>
-      <c r="AS190" s="2"/>
+      <c r="AS190" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT190" s="2"/>
-      <c r="AU190" s="2" t="s">
+      <c r="AU190" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AV190" s="2"/>
-      <c r="AW190" s="2"/>
-      <c r="AX190" s="2"/>
+      <c r="AW190" s="9"/>
+      <c r="AX190" s="5"/>
       <c r="AY190" s="2"/>
       <c r="AZ190" s="2"/>
       <c r="BA190" s="2"/>
@@ -14695,8 +14712,8 @@
       <c r="BC190" s="2"/>
     </row>
     <row r="191" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A191" s="2" t="s">
-        <v>212</v>
+      <c r="A191" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
@@ -14708,7 +14725,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
@@ -14749,9 +14766,7 @@
       <c r="AP191" s="2"/>
       <c r="AQ191" s="2"/>
       <c r="AR191" s="2"/>
-      <c r="AS191" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS191" s="2"/>
       <c r="AT191" s="2"/>
       <c r="AU191" s="8" t="s">
         <v>48</v>
@@ -14767,23 +14782,23 @@
     </row>
     <row r="192" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A192" s="2" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
-      <c r="I192" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
+      <c r="L192" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -14800,11 +14815,11 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
-      <c r="AA192" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA192" s="5"/>
       <c r="AB192" s="2"/>
-      <c r="AC192" s="2"/>
+      <c r="AC192" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AD192" s="2"/>
       <c r="AE192" s="2"/>
       <c r="AF192" s="2"/>
@@ -14820,12 +14835,14 @@
       <c r="AP192" s="2"/>
       <c r="AQ192" s="2"/>
       <c r="AR192" s="2"/>
-      <c r="AS192" s="2"/>
+      <c r="AS192" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT192" s="2"/>
-      <c r="AU192" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV192" s="2"/>
+      <c r="AU192" s="8"/>
+      <c r="AV192" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AW192" s="9"/>
       <c r="AX192" s="5"/>
       <c r="AY192" s="2"/>
@@ -14836,44 +14853,44 @@
     </row>
     <row r="193" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A193" s="2" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C193" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
+      <c r="I193" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
-      <c r="L193" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
+      <c r="P193" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
-      <c r="S193" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="S193" s="5"/>
       <c r="T193" s="2"/>
       <c r="U193" s="2"/>
       <c r="V193" s="2"/>
-      <c r="W193" s="2"/>
+      <c r="W193" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
       <c r="AA193" s="5"/>
       <c r="AB193" s="2"/>
-      <c r="AC193" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AC193" s="2"/>
       <c r="AD193" s="2"/>
       <c r="AE193" s="2"/>
       <c r="AF193" s="2"/>
@@ -14889,15 +14906,13 @@
       <c r="AP193" s="2"/>
       <c r="AQ193" s="2"/>
       <c r="AR193" s="2"/>
-      <c r="AS193" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AS193" s="2"/>
       <c r="AT193" s="2"/>
       <c r="AU193" s="8"/>
-      <c r="AV193" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW193" s="9"/>
+      <c r="AV193" s="2"/>
+      <c r="AW193" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="AX193" s="5"/>
       <c r="AY193" s="2"/>
       <c r="AZ193" s="2"/>
@@ -14907,7 +14922,7 @@
     </row>
     <row r="194" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A194" s="2" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
@@ -14932,17 +14947,19 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
-      <c r="S194" s="5"/>
+      <c r="S194" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
-      <c r="W194" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="W194" s="2"/>
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
-      <c r="AA194" s="5"/>
+      <c r="AA194" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
       <c r="AD194" s="2"/>
@@ -14960,13 +14977,15 @@
       <c r="AP194" s="2"/>
       <c r="AQ194" s="2"/>
       <c r="AR194" s="2"/>
-      <c r="AS194" s="2"/>
+      <c r="AS194" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AT194" s="2"/>
-      <c r="AU194" s="8"/>
+      <c r="AU194" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="AV194" s="2"/>
-      <c r="AW194" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW194" s="9"/>
       <c r="AX194" s="5"/>
       <c r="AY194" s="2"/>
       <c r="AZ194" s="2"/>
@@ -14976,7 +14995,7 @@
     </row>
     <row r="195" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A195" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
@@ -14996,14 +15015,10 @@
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
-      <c r="P195" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="P195" s="2"/>
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
-      <c r="S195" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="S195" s="5"/>
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
@@ -15011,11 +15026,11 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
-      <c r="AA195" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA195" s="5"/>
       <c r="AB195" s="2"/>
-      <c r="AC195" s="2"/>
+      <c r="AC195" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AD195" s="2"/>
       <c r="AE195" s="2"/>
       <c r="AF195" s="2"/>
@@ -15118,7 +15133,7 @@
     </row>
     <row r="197" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A197" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2" t="s">
@@ -15129,11 +15144,11 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
-      <c r="I197" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I197" s="2"/>
       <c r="J197" s="2"/>
-      <c r="K197" s="2"/>
+      <c r="K197" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -15149,11 +15164,11 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
-      <c r="AA197" s="5"/>
+      <c r="AA197" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="AB197" s="2"/>
-      <c r="AC197" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AC197" s="2"/>
       <c r="AD197" s="2"/>
       <c r="AE197" s="2"/>
       <c r="AF197" s="2"/>
@@ -15165,18 +15180,20 @@
       <c r="AL197" s="2"/>
       <c r="AM197" s="2"/>
       <c r="AN197" s="2"/>
-      <c r="AO197" s="2"/>
+      <c r="AO197" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AP197" s="2"/>
       <c r="AQ197" s="2"/>
       <c r="AR197" s="2"/>
       <c r="AS197" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AT197" s="2"/>
-      <c r="AU197" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV197" s="2"/>
+      <c r="AU197" s="8"/>
+      <c r="AV197" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="AW197" s="9"/>
       <c r="AX197" s="5"/>
       <c r="AY197" s="2"/>
@@ -15187,7 +15204,7 @@
     </row>
     <row r="198" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A198" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
@@ -15198,11 +15215,11 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
+      <c r="I198" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J198" s="2"/>
-      <c r="K198" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -15210,7 +15227,9 @@
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
-      <c r="S198" s="5"/>
+      <c r="S198" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
       <c r="V198" s="2"/>
@@ -15219,7 +15238,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
       <c r="AA198" s="5" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
@@ -15234,20 +15253,16 @@
       <c r="AL198" s="2"/>
       <c r="AM198" s="2"/>
       <c r="AN198" s="2"/>
-      <c r="AO198" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AO198" s="2"/>
       <c r="AP198" s="2"/>
       <c r="AQ198" s="2"/>
       <c r="AR198" s="2"/>
-      <c r="AS198" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AS198" s="2"/>
       <c r="AT198" s="2"/>
-      <c r="AU198" s="8"/>
-      <c r="AV198" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="AU198" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV198" s="2"/>
       <c r="AW198" s="9"/>
       <c r="AX198" s="5"/>
       <c r="AY198" s="2"/>
@@ -15258,7 +15273,7 @@
     </row>
     <row r="199" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A199" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -15269,11 +15284,11 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
-      <c r="I199" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="I199" s="2"/>
       <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
+      <c r="K199" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -15282,7 +15297,7 @@
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
       <c r="S199" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T199" s="2"/>
       <c r="U199" s="2"/>
@@ -15292,7 +15307,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
       <c r="AA199" s="5" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
@@ -15311,7 +15326,9 @@
       <c r="AP199" s="2"/>
       <c r="AQ199" s="2"/>
       <c r="AR199" s="2"/>
-      <c r="AS199" s="2"/>
+      <c r="AS199" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AT199" s="2"/>
       <c r="AU199" s="8" t="s">
         <v>48</v>
@@ -15325,154 +15342,67 @@
       <c r="BB199" s="2"/>
       <c r="BC199" s="2"/>
     </row>
-    <row r="200" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A200" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
-      <c r="S200" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2"/>
-      <c r="V200" s="2"/>
-      <c r="W200" s="2"/>
-      <c r="X200" s="2"/>
-      <c r="Y200" s="2"/>
-      <c r="Z200" s="2"/>
-      <c r="AA200" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB200" s="2"/>
-      <c r="AC200" s="2"/>
-      <c r="AD200" s="2"/>
-      <c r="AE200" s="2"/>
-      <c r="AF200" s="2"/>
-      <c r="AG200" s="2"/>
-      <c r="AH200" s="2"/>
-      <c r="AI200" s="2"/>
-      <c r="AJ200" s="2"/>
-      <c r="AK200" s="2"/>
-      <c r="AL200" s="2"/>
-      <c r="AM200" s="2"/>
-      <c r="AN200" s="2"/>
-      <c r="AO200" s="2"/>
-      <c r="AP200" s="2"/>
-      <c r="AQ200" s="2"/>
-      <c r="AR200" s="2"/>
-      <c r="AS200" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT200" s="2"/>
-      <c r="AU200" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV200" s="2"/>
-      <c r="AW200" s="9"/>
-      <c r="AX200" s="5"/>
-      <c r="AY200" s="2"/>
-      <c r="AZ200" s="2"/>
-      <c r="BA200" s="2"/>
-      <c r="BB200" s="2"/>
-      <c r="BC200" s="2"/>
-    </row>
-    <row r="201" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="5"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2"/>
-      <c r="V201" s="2"/>
-      <c r="W201" s="2"/>
-      <c r="X201" s="2"/>
-      <c r="Y201" s="2"/>
-      <c r="Z201" s="2"/>
-      <c r="AA201" s="5"/>
-      <c r="AB201" s="2"/>
-      <c r="AC201" s="2"/>
-      <c r="AD201" s="2"/>
-      <c r="AE201" s="2"/>
-      <c r="AF201" s="2"/>
-      <c r="AG201" s="2"/>
-      <c r="AH201" s="2"/>
-      <c r="AI201" s="2"/>
-      <c r="AJ201" s="2"/>
-      <c r="AK201" s="2"/>
-      <c r="AL201" s="2"/>
-      <c r="AM201" s="2"/>
-      <c r="AN201" s="2"/>
-      <c r="AO201" s="2"/>
-      <c r="AP201" s="2"/>
-      <c r="AQ201" s="2"/>
-      <c r="AR201" s="2"/>
-      <c r="AS201" s="2"/>
-      <c r="AT201" s="2"/>
-      <c r="AU201" s="8"/>
-      <c r="AV201" s="2"/>
-      <c r="AW201" s="9"/>
-      <c r="AX201" s="5"/>
-      <c r="AY201" s="2"/>
-      <c r="AZ201" s="2"/>
-      <c r="BA201" s="2"/>
-      <c r="BB201" s="2"/>
-      <c r="BC201" s="2"/>
+    <row r="200" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A200" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P200" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S200" s="16"/>
+      <c r="T200" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ200" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV200" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="201" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A201" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I201" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S201" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE201" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU201" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="202" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A202" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D202" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O202" s="15" t="s">
+      <c r="A202" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C202" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="S202" s="16" t="s">
+      <c r="K202" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T202" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AI202" s="15" t="s">
+      <c r="V202" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AJ202" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ202" s="15" t="s">
+      <c r="AA202" s="15" t="s">
         <v>43</v>
       </c>
       <c r="AV202" s="15" t="s">
@@ -15480,8 +15410,8 @@
       </c>
     </row>
     <row r="203" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A203" s="15" t="s">
-        <v>245</v>
+      <c r="A203" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="C203" s="15" t="s">
         <v>43</v>
@@ -15489,288 +15419,285 @@
       <c r="I203" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="S203" s="15" t="s">
+      <c r="P203" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AE203" s="15" t="s">
+      <c r="T203" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB203" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AU203" s="15" t="s">
+      <c r="AX203" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="204" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A204" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C204" s="15" t="s">
+      <c r="A204" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D204" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K204" s="15" t="s">
-        <v>48</v>
+      <c r="I204" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L204" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="T204" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="V204" s="15" t="s">
+      <c r="AK204" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AA204" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV204" s="15" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="205" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A205" s="15" t="s">
-        <v>247</v>
+      <c r="A205" s="18" t="s">
+        <v>246</v>
       </c>
       <c r="C205" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I205" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P205" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="T205" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB205" s="15" t="s">
+      <c r="AA205" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AX205" s="15" t="s">
+      <c r="AN205" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="AV205" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="206" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A206" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="D206" s="15" t="s">
+      <c r="A206" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C206" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I206" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L206" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T206" s="15" t="s">
+      <c r="U206" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB206" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AK206" s="15" t="s">
+      <c r="AU206" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="207" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A207" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C207" s="15" t="s">
+      <c r="A207" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E207" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I207" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AA207" s="15" t="s">
+      <c r="U207" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AN207" s="15" t="s">
+      <c r="AJ207" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AV207" s="15" t="s">
+      <c r="AX207" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="208" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A208" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C208" s="15" t="s">
+      <c r="A208" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E208" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I208" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U208" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB208" s="15" t="s">
+      <c r="Z208" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AU208" s="15" t="s">
+      <c r="AJ208" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="AL208" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM208" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ208" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY208" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="209" spans="1:51" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A209" s="15" t="s">
-        <v>251</v>
+      <c r="A209" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="E209" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I209" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="U209" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC209" s="15" t="s">
         <v>43</v>
       </c>
       <c r="AJ209" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AX209" s="15" t="s">
+      <c r="AY209" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="210" spans="1:51" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H210" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU210" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A211" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E210" s="15" t="s">
+      <c r="H211" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I210" s="15" t="s">
+      <c r="P211" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z210" s="15" t="s">
+      <c r="S211" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A212" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AJ210" s="15" t="s">
+      <c r="H212" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AL210" s="15" t="s">
+      <c r="I212" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AM210" s="15" t="s">
+      <c r="P212" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AQ210" s="15" t="s">
+      <c r="Y212" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AY210" s="15" t="s">
+      <c r="AQ212" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="211" spans="1:51" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A211" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E211" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I211" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC211" s="15" t="s">
+      <c r="AS212" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AJ211" s="15" t="s">
+      <c r="AU212" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AY211" s="15" t="s">
+    </row>
+    <row r="213" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A213" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="212" spans="1:51" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
-      <c r="A212" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H212" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P212" s="15" t="s">
+      <c r="I213" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU212" s="15" t="s">
+      <c r="S213" s="5"/>
+      <c r="T213" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA213" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="213" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A213" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H213" s="2" t="s">
+      <c r="AU213" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P213" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S213" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AW213" s="9"/>
+      <c r="AX213" s="5"/>
     </row>
     <row r="214" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A214" s="2" t="s">
-        <v>257</v>
+      <c r="A214" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I214" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P214" s="2" t="s">
+      <c r="Z214" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y214" s="2" t="s">
+      <c r="AG214" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AQ214" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS214" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="AU214" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="215" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A215" s="2" t="s">
-        <v>258</v>
+      <c r="A215" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I215" s="2" t="s">
+      <c r="S215" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S215" s="5"/>
-      <c r="T215" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA215" s="5" t="s">
+      <c r="AA215" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU215" s="8" t="s">
+      <c r="AS215" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV215" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AW215" s="9"/>
-      <c r="AX215" s="5"/>
     </row>
     <row r="216" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A216" s="2" t="s">
-        <v>259</v>
+      <c r="A216" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I216" s="2" t="s">
+      <c r="H216" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Z216" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AG216" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ216" s="2" t="s">
+      <c r="AM216" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AU216" s="2" t="s">
@@ -15778,28 +15705,28 @@
       </c>
     </row>
     <row r="217" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A217" s="2" t="s">
-        <v>260</v>
+      <c r="A217" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="H217" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="S217" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AA217" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS217" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV217" s="2" t="s">
+      <c r="AU217" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="218" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A218" s="2" t="s">
-        <v>261</v>
+      <c r="A218" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>43</v>
@@ -15807,10 +15734,13 @@
       <c r="H218" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z218" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM218" s="2" t="s">
+      <c r="S218" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ218" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ218" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AU218" s="2" t="s">
@@ -15818,8 +15748,8 @@
       </c>
     </row>
     <row r="219" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A219" s="2" t="s">
-        <v>262</v>
+      <c r="A219" s="9" t="s">
+        <v>268</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>43</v>
@@ -15827,42 +15757,49 @@
       <c r="H219" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S219" s="2" t="s">
+      <c r="Y219" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AA219" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU219" s="2" t="s">
+      <c r="AQ219" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AX219" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="220" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A220" s="2" t="s">
-        <v>263</v>
+      <c r="A220" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="C220" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S220" s="5"/>
+      <c r="Y220" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H220" s="2" t="s">
+      <c r="AA220" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="S220" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ220" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="AQ220" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU220" s="2" t="s">
+      <c r="AU220" s="8"/>
+      <c r="AV220" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="221" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A221" s="2" t="s">
-        <v>265</v>
+      <c r="AW220" s="9"/>
+      <c r="AX220" s="5"/>
+    </row>
+    <row r="221" spans="1:51" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A221" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>43</v>
@@ -15870,69 +15807,46 @@
       <c r="H221" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y221" s="2" t="s">
+      <c r="S221" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AA221" s="2" t="s">
+      <c r="AA221" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AQ221" s="2" t="s">
+      <c r="AW221" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AX221" s="2" t="s">
+    </row>
+    <row r="222" spans="1:51" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A222" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C222" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="222" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A222" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S222" s="5"/>
-      <c r="Y222" s="2" t="s">
+      <c r="I222" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA222" s="5" t="s">
+      <c r="S222" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AQ222" s="2" t="s">
+      <c r="AD222" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AU222" s="8"/>
-      <c r="AV222" s="2" t="s">
+      <c r="AG222" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AW222" s="9"/>
-      <c r="AX222" s="5"/>
-    </row>
-    <row r="223" spans="1:51" ht="31.2" x14ac:dyDescent="0.65">
-      <c r="A223" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C223" s="2" t="s">
+      <c r="AS222" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H223" s="2" t="s">
+      <c r="AW222" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="S223" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA223" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW223" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    </row>
+    <row r="223" spans="1:51" s="17" customFormat="1" ht="34.950000000000003" x14ac:dyDescent="0.65"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC204">
-    <sortCondition ref="A3:A204"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC202">
+    <sortCondition ref="A3:A202"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
